--- a/biology/Médecine/Vulnérabilité_(sécurité)/Vulnérabilité_(sécurité).xlsx
+++ b/biology/Médecine/Vulnérabilité_(sécurité)/Vulnérabilité_(sécurité).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+          <t>Vulnérabilité_(sécurité)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En étude et gestion des risques, la vulnérabilité d'un groupe, d'une organisation, d'un élément bâti ou d'une zone géographique est le point faible de cette entité, pouvant être défini par :
 un objet de risque : ressource qui est en risque, pouvant appartenir à cinq classes : humaine, technique, informations, partenaires et financières (H, T, I, P, F). Un exemple d'objet de risque est une Installation classée pour la protection de l'environnement (ICPE).
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+          <t>Vulnérabilité_(sécurité)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,9 +532,11 @@
           <t>Classes de vulnérabilités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>De manière générale, la notion de vulnérabilité est liée à celle d'insécurité, de danger réel ou potentiel dont il faudrait pouvoir se préserver (Alwang et al., 2001), dans le domaine de l'économie, ce danger étant souvent la tombée ou la retombée dans une situation de pauvreté qui peut elle-même limiter les capacités de résilience[1] de l'entité concernée. Dercon la définit comme suit : « the existence and the extent of a threat of poverty and destitution; the danger that a socially unacceptable level of well-being may materialise »[2]. On peut s'intéresser à un facteur particulier, par exemple le climat dans le cadre des études de vulnérabilité au dérèglement climatique[3]. Rousseau  a en 2003 insisté sur l'importance du rapport entre risques et capacités (la vulnérabilité diminue quand les capacités de l'entité concernée s'accroissent, pour un même contexte de risques. Inversement, elle augmente quand les risques augmentent (pour des dotations et opportunités restant identiques)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De manière générale, la notion de vulnérabilité est liée à celle d'insécurité, de danger réel ou potentiel dont il faudrait pouvoir se préserver (Alwang et al., 2001), dans le domaine de l'économie, ce danger étant souvent la tombée ou la retombée dans une situation de pauvreté qui peut elle-même limiter les capacités de résilience de l'entité concernée. Dercon la définit comme suit : « the existence and the extent of a threat of poverty and destitution; the danger that a socially unacceptable level of well-being may materialise ». On peut s'intéresser à un facteur particulier, par exemple le climat dans le cadre des études de vulnérabilité au dérèglement climatique. Rousseau  a en 2003 insisté sur l'importance du rapport entre risques et capacités (la vulnérabilité diminue quand les capacités de l'entité concernée s'accroissent, pour un même contexte de risques. Inversement, elle augmente quand les risques augmentent (pour des dotations et opportunités restant identiques).
 Les classes de vulnérabilité (selon l'AFNOR en France) correspondent aux cinq catégories de ressources :
 Atteintes de personne H
 Dommage aux biens physiques et techniques T
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+          <t>Vulnérabilité_(sécurité)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Place dans la gestion des risques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'identification de l'objet du risque et du péril (facteur de risque) permet de clore la phase d'identification des risques.
 La suite de l'analyse des risques prend en compte les conséquences :
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+          <t>Vulnérabilité_(sécurité)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,28 +612,207 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Par rapport au risque industriel
-Voir : Installation classée pour la protection de l'environnement
+          <t>Par rapport au risque industriel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir : Installation classée pour la protection de l'environnement
 La vulnérabilité d’une zone ou d’un point donné est l’appréciation de la sensibilité des cibles présentes dans la zone à un type d’effet donné (surpression de x mbar, gaz toxique à la concentration y pendant un temps t…). Par exemple, on distinguera des zones d’habitat, de zones de terres agricoles, les premières étant plus sensibles que les secondes à un aléa d’explosion en raison de la présence de constructions et de personnes. (Circulaire du 02/10/03 du MEDD sur les mesures d'application immédiate introduites par la loi 2003-699 en matière de prévention des risques technologiques dans les installations classées).
-Par rapport au risque pays
-Le FMI publie des indicateurs de vulnérabilité par rapport au risque pays[5].
-Par rapport aux informations sensibles
-Les données informatiques sont de plus en plus constituées par des informations éparpillées et des documents répartis sur différents sites et postes de travail, qui contiennent le patrimoine de connaissances (explicites) de personnes et d'organismes qui travaillent en communautés de pratique. Ce patrimoine, quelquefois appelé capital immatériel (ou capital intellectuel), doit être protégé contre les risques de perte de compétence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vulnérabilité_(sécurité)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Par rapport au risque pays</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le FMI publie des indicateurs de vulnérabilité par rapport au risque pays.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vulnérabilité_(sécurité)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Par rapport aux informations sensibles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les données informatiques sont de plus en plus constituées par des informations éparpillées et des documents répartis sur différents sites et postes de travail, qui contiennent le patrimoine de connaissances (explicites) de personnes et d'organismes qui travaillent en communautés de pratique. Ce patrimoine, quelquefois appelé capital immatériel (ou capital intellectuel), doit être protégé contre les risques de perte de compétence.
 D'autre part, les documents contractuels de l'entreprise, signés avec des partenaires (clients, fournisseurs, banques, assurances) engagent l'entreprise, par la signature électronique. Les impacts économiques, environnementaux et sociaux des activités de l'entreprise sur diverses parties prenantes, peuvent engager la responsabilité des dirigeants ou des employés de l'entreprise sur le plan juridique. Il est donc nécessaire de pouvoir fournir la preuve de la bonne exécution des termes d'un contrat (gestion de la preuve), et de s'assurer que différents types de risques ont été pris en compte, afin de se prémunir contre le risque juridique, responsabilités civile et pénale, pouvant entraîner des amendes lourdes en cas de non-respect de dispositions légales.
 Tout cela nécessite d'analyser la vulnérabilité de l'organisation dans son ensemble, et du système d'information, qui commence par l'identification des éléments sensibles :
 Actifs,
 Informations de toute nature, données, etc.
 Voir :
 Sécurité des données
-Patrimoine informationnel
-Par rapport aux processus de décision
-Certains processus de décision peuvent également présenter des vulnérabilités par rapport aux actions d'influence, car ils véhiculent des connaissances sensibles pour les communautés qui partagent ces connaissances (gouvernements, pôles de compétitivité…).
+Patrimoine informationnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vulnérabilité_(sécurité)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Par rapport aux processus de décision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains processus de décision peuvent également présenter des vulnérabilités par rapport aux actions d'influence, car ils véhiculent des connaissances sensibles pour les communautés qui partagent ces connaissances (gouvernements, pôles de compétitivité…).
 En l'absence d'une gestion rigoureuse des données partagées, des informations même relativement peu sensibles (grises), disponibles en sources ouvertes, peuvent être captées par des réseaux d'influence internationaux pouvant avoir des intérêts différents de l'organisation.
 Si l'on dispose d'une organisation (registres de métadonnées) permettant de décrypter, avec des moteurs de recherche, des ressources informatiques indexées avec des métadonnées structurées de façon cohérente, on dispose d'une puissance d'influence très importante.
-Par rapport au dérèglement climatique
-Selon le GIEC, en termes de vulnérabilité et de risque il existe de profondes inégalités face au risque climatique, et plus encore face aux risques d'évènements climatiques extrêmes[6].
-Par rapport au risque épidémiologique
-L'ONU, et plus précisément l'OMS, avec la FAO et l'OIE ont mis en place des outils de veille et alerte pour mieux gérer le risque pandémique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vulnérabilité_(sécurité)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Par rapport au dérèglement climatique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le GIEC, en termes de vulnérabilité et de risque il existe de profondes inégalités face au risque climatique, et plus encore face aux risques d'évènements climatiques extrêmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vulnérabilité_(sécurité)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuln%C3%A9rabilit%C3%A9_(s%C3%A9curit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Par rapport au risque épidémiologique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ONU, et plus précisément l'OMS, avec la FAO et l'OIE ont mis en place des outils de veille et alerte pour mieux gérer le risque pandémique. 
 Des plans nationaux et régionaux existent également, récemment mis en œuvre à échelle mondiale pour la grippe aviaire ou le H1N1 par exemple.
 </t>
         </is>
